--- a/backtest/bt_report/rs_m_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/rs_m_ind/single_run/summary.xlsx
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.4363738647635687</v>
+        <v>0.4363738647635688</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2533800203278528</v>
+        <v>0.2533800203278527</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>

--- a/backtest/bt_report/rs_m_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/rs_m_ind/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>61472961.72714272</v>
+        <v>61472834.98307132</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>1896.318442726527</v>
+        <v>1769.574371321146</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>5.147296172714272</v>
+        <v>5.147283498307132</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.2571126637168668</v>
+        <v>0.2571123371375668</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>6.147296172714272</v>
+        <v>6.147283498307132</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>165.593042495994</v>
+        <v>165.5941490875089</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.2554374844740215</v>
+        <v>0.2592915258871397</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2027288731803275</v>
+        <v>0.2027283707671999</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.018544168313408</v>
+        <v>1.018544915964996</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1444492954177627</v>
+        <v>0.1444491273760883</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.429486457025525</v>
+        <v>1.429485626653771</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02033837870452387</v>
+        <v>0.02033832807665807</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.8661857380910545</v>
+        <v>0.8661818613261187</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.08178340058419731</v>
+        <v>0.08178311742814093</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1942208630561597</v>
+        <v>0.1942205382999752</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.3831267532360847</v>
+        <v>0.3831267163315676</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.357354346375764</v>
+        <v>1.357357492595406</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.4363738647635688</v>
+        <v>0.436373110843038</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.5819712561995394</v>
+        <v>0.5819718137654116</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2533800203278527</v>
+        <v>0.2533796327435372</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1874916810599552</v>
+        <v>0.1874912343484642</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.4091197664051388</v>
+        <v>0.4091223223682925</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.009510502814735</v>
+        <v>1.009507203565606</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.536531442268437</v>
+        <v>1.536524728143917</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.360667004783559</v>
+        <v>1.360663269913359</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03273162599692274</v>
+        <v>0.03273154878383047</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1277,16 +1277,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1280911445511524</v>
+        <v>0.1280975583990279</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.3412986982993238</v>
+        <v>-0.3412950383415547</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.6350011562666611</v>
+        <v>0.6350320246848854</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-1.788906988588082</v>
+        <v>-1.788924941533658</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>0.3461538461538461</v>
@@ -1297,16 +1297,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.02764477524834811</v>
+        <v>-0.02765281194445698</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1697159648592241</v>
+        <v>-0.1697226802435595</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>-0.05816258217187469</v>
+        <v>-0.05820637044606131</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-0.5121655046504751</v>
+        <v>-0.5122191107058666</v>
       </c>
       <c r="F9" s="13" t="n">
         <v>0.4230769230769231</v>
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.05719407683386016</v>
+        <v>0.05719456833037103</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.2085134123029898</v>
+        <v>0.2085139793681084</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>1.16571905343011</v>
+        <v>1.165725915777688</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>1.593814874547783</v>
+        <v>1.593822376633312</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.52</v>
@@ -1685,25 +1685,25 @@
         <v>0.01468517896695376</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.09922885421094141</v>
+        <v>0.09923533102596793</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.05600685698292773</v>
+        <v>0.05601002542445288</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.01630808433146558</v>
+        <v>-0.01628370294090065</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.02262602005600511</v>
+        <v>-0.02262508082538317</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.03838732815193469</v>
+        <v>-0.03838128333925128</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.06697315065248199</v>
+        <v>0.06692646835288807</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.05703061477003568</v>
+        <v>0.05703961406897573</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.01392949384160136</v>
+        <v>-0.01392941464485675</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.03493638694968348</v>
+        <v>-0.03493618551141442</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.02666931424499652</v>
+        <v>-0.02666933063000809</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.02738236209025957</v>
+        <v>0.02737479689474664</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.03023879400495932</v>
+        <v>0.03023883651526105</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.02267567159583905</v>
+        <v>-0.02267570253809392</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.009184655450633628</v>
+        <v>0.009184668274411889</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.0199730215827334</v>
+        <v>0.01997322215442998</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.05107078935999498</v>
+        <v>-0.05107101952649096</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>0.01200228992821106</v>
+        <v>0.01200230708452876</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.01700326014701981</v>
+        <v>0.01700187169603962</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.009473523213508361</v>
+        <v>0.009473723134998169</v>
       </c>
     </row>
     <row r="10">
@@ -1752,7 +1752,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.01783780771860699</v>
+        <v>-0.01783733780153884</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0</v>
@@ -1761,16 +1761,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>-0.01472052384466072</v>
+        <v>-0.01472055477557865</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.02577565734252918</v>
+        <v>0.02577571231178655</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.07180453830794487</v>
+        <v>0.0718046875906857</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>-0.006325620159869372</v>
+        <v>-0.006325794074340529</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -2141,25 +2141,25 @@
         <v>0.005260164443232407</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.06049408078213536</v>
+        <v>-0.060488481045192</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.08176556972311821</v>
+        <v>-0.08176265994509713</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.005010872895129692</v>
+        <v>0.005035318857584903</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.02997047709164713</v>
+        <v>0.02997143063899466</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.07136989588439968</v>
+        <v>-0.07136347743848137</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.07421522789677781</v>
+        <v>0.07416771882790751</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.06400214315819208</v>
+        <v>-0.06399419313201693</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.06681298362064425</v>
+        <v>-0.06681293163603441</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.03368236340494035</v>
+        <v>0.03368255349837135</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.01693725058111495</v>
+        <v>0.01693722207627513</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.0855743090006541</v>
+        <v>-0.08558081849863908</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.03932886154714754</v>
+        <v>-0.03932881742688477</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.07356208530708164</v>
+        <v>-0.07356214377716108</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.01191287942078967</v>
+        <v>0.01191290009588086</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.08631368587501798</v>
+        <v>0.08631390038068476</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.06356360559992935</v>
+        <v>-0.0635638250399424</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.02169767794434552</v>
+        <v>-0.02169765321332173</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.02620894194359613</v>
+        <v>-0.02621026948517835</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.06052699841334541</v>
+        <v>0.06052720060766759</v>
       </c>
     </row>
     <row r="10">
@@ -2208,7 +2208,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.116273840319129</v>
+        <v>0.1162743664809456</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0.004280811429914211</v>
@@ -2217,16 +2217,16 @@
         <v>0.07009750317718355</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1142600528657491</v>
+        <v>0.1142600179069098</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.01520871287653103</v>
+        <v>-0.01520865905856217</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.08547911751262649</v>
+        <v>-0.08547898231107232</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.003870810774424305</v>
+        <v>0.003870636859953258</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/bt_report/rs_m_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/rs_m_ind/single_run/summary.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="51600" yWindow="8320" windowWidth="28400" windowHeight="25040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="概览" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="年度指标" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="月度收益" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="月度主动收益" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="概览" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="年度指标" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="月度收益" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="月度主动收益" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>STOCK:10000000.0</t>
+          <t>STOCK:100000000.0</t>
         </is>
       </c>
       <c r="C5" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>61472834.98307132</v>
+        <v>614824006.3432277</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>1769.574371321146</v>
+        <v>7874.208027750254</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>5.147283498307132</v>
+        <v>5.148240063432278</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.2571123371375668</v>
+        <v>0.2571369831352956</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>6.147283498307132</v>
+        <v>6.148240063432278</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B13" s="7" t="n">
-        <v>10000000</v>
+        <v>100000000</v>
       </c>
       <c r="C13" s="13" t="n"/>
       <c r="D13" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>165.5941490875089</v>
+        <v>165.5922849376499</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.2592915258871397</v>
+        <v>0.3467212255116107</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2027283707671999</v>
+        <v>0.2027371538352092</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.018544915964996</v>
+        <v>1.018606461659571</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1444491273760883</v>
+        <v>0.1444562782027982</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.429485626653771</v>
+        <v>1.429563169453263</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2206221982536451</v>
+        <v>0.2206190325155632</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02033832807665807</v>
+        <v>0.0203391910279853</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.8661818613261187</v>
+        <v>0.866512177220274</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.08178311742814093</v>
+        <v>0.0818072416138067</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1942205382999752</v>
+        <v>0.1942438477621634</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.3831267163315676</v>
+        <v>0.3831537712222267</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.357357492595406</v>
+        <v>1.357454543613016</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.436373110843038</v>
+        <v>0.4364637355059541</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.5819718137654116</v>
+        <v>0.5819203296632957</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2533796327435372</v>
+        <v>0.2533761069166114</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1874912343484642</v>
+        <v>0.1875135181777243</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.4091223223682925</v>
+        <v>0.4091584811887613</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.009507203565606</v>
+        <v>1.009564147274585</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.536524728143917</v>
+        <v>1.536581693232911</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.360663269913359</v>
+        <v>1.36075968980303</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03273154878383047</v>
+        <v>0.03273080785736062</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.1765007035881299</v>
+        <v>0.1764997540447136</v>
       </c>
     </row>
   </sheetData>
@@ -1157,16 +1157,16 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.6740319999999997</v>
+        <v>0.6739099999999991</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.5261155832367734</v>
+        <v>0.526009318344383</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.401419022082913</v>
+        <v>3.401276550366179</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>5.530934642303164</v>
+        <v>5.530832301055194</v>
       </c>
       <c r="F2" s="13" t="n">
         <v>0.5789473684210527</v>
@@ -1177,16 +1177,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>1.164001643935123</v>
+        <v>1.16411515553405</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.004593325340948445</v>
+        <v>0.004653664068104879</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.807259157457396</v>
+        <v>2.807273966432725</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.806361916300543</v>
+        <v>3.806544731628684</v>
       </c>
       <c r="F3" s="13" t="n">
         <v>0.4230769230769231</v>
@@ -1197,16 +1197,16 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.07497195390724082</v>
+        <v>-0.07498314715610657</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.1790097957669186</v>
+        <v>0.1789967847871007</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.3882965906471331</v>
+        <v>-0.3883630044574152</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.002903721554969346</v>
+        <v>-0.002965529784028581</v>
       </c>
       <c r="F4" s="13" t="n">
         <v>0.58</v>
@@ -1217,16 +1217,16 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.2286504920600151</v>
+        <v>0.2287495467642322</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.3517715590122462</v>
+        <v>0.3518812527427847</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.751679169620282</v>
+        <v>1.752058503973699</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>2.458992221185023</v>
+        <v>2.459432647506874</v>
       </c>
       <c r="F5" s="13" t="n">
         <v>0.6274509803921569</v>
@@ -1237,16 +1237,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.06164856183473116</v>
+        <v>-0.06163491096251222</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2451092885644754</v>
+        <v>0.2451297487633153</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.3657508030398334</v>
+        <v>-0.3655844308088864</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.1392486684664878</v>
+        <v>0.1393976042610543</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>0.6470588235294118</v>
@@ -1257,16 +1257,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.3721138146567122</v>
+        <v>0.3721264836374765</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.07192673756544385</v>
+        <v>-0.07191739462184729</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.669699255603865</v>
+        <v>1.669719536100036</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.8528096489858246</v>
+        <v>0.8528511353307362</v>
       </c>
       <c r="F7" s="13" t="n">
         <v>0.4615384615384616</v>
@@ -1277,16 +1277,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1280975583990279</v>
+        <v>0.1281805919216598</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.3412950383415547</v>
+        <v>-0.341245475220039</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.6350320246848854</v>
+        <v>0.6353338689599191</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-1.788924941533658</v>
+        <v>-1.78838083367367</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>0.3461538461538461</v>
@@ -1297,16 +1297,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.02765281194445698</v>
+        <v>-0.0276603261455664</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1697226802435595</v>
+        <v>-0.1697256809607827</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>-0.05820637044606131</v>
+        <v>-0.05822255321871239</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-0.5122191107058666</v>
+        <v>-0.5122700889330872</v>
       </c>
       <c r="F9" s="13" t="n">
         <v>0.4230769230769231</v>
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.05719456833037103</v>
+        <v>0.05721351543474881</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.2085139793681084</v>
+        <v>0.2085360304390557</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>1.165725915777688</v>
+        <v>1.166090969831543</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>1.593822376633312</v>
+        <v>1.594299015348746</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.52</v>
@@ -1433,31 +1433,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.0210530000000001</v>
+        <v>-0.02105799999999991</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.01218145619732192</v>
+        <v>0.01218253992575669</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.02885135516999182</v>
+        <v>0.02886358223295127</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.1116385145076799</v>
+        <v>0.1115856505549955</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.002439840073557575</v>
+        <v>-0.002422288228474123</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.0516255552823246</v>
+        <v>0.05166827217794911</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.001834516670886188</v>
+        <v>0.001815136963775776</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1501851307669706</v>
+        <v>0.1501256455443896</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.2219853890131451</v>
+        <v>0.2219605564380487</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.02260828944727411</v>
+        <v>0.02261949567181021</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.1168447068980929</v>
+        <v>0.1168647945726449</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.1621075964627918</v>
+        <v>0.1621236110740611</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.1397208706129209</v>
+        <v>0.1397813455038099</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.1784431700518985</v>
+        <v>0.1784153894513043</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.01793816042874641</v>
+        <v>-0.01796129469840335</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.01879846898820814</v>
+        <v>0.01879926566434853</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.002217568933537528</v>
+        <v>0.002217285988360462</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.1146186424393356</v>
+        <v>0.114624704069042</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.07526341716289897</v>
+        <v>0.07526029626671327</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.01011704181857409</v>
+        <v>0.01011781390528133</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.0884213803977687</v>
+        <v>-0.08841821774481617</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-0.01717625213033847</v>
+        <v>-0.01717442363295685</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.04483094037998181</v>
+        <v>0.04483808767896269</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.05130765394906012</v>
+        <v>-0.05131839890063405</v>
       </c>
       <c r="F4" s="15" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01580343696234343</v>
+        <v>0.01580188136730243</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.02967417254858251</v>
+        <v>0.02965735648775403</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.001129900184225541</v>
+        <v>0.001128159314164101</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02599043370129928</v>
+        <v>-0.02599620194806751</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.007268799599652098</v>
+        <v>0.007268822696989474</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.03783392239085215</v>
+        <v>0.03782564281322509</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02303881181491274</v>
+        <v>-0.02301875064142633</v>
       </c>
     </row>
     <row r="5">
@@ -1550,37 +1550,37 @@
         <v>0</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.0261547698696567</v>
+        <v>0.02616069390209463</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.02389216261339122</v>
+        <v>0.02391635818060278</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.001696197699624369</v>
+        <v>0.001700747414298265</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.001924981030898443</v>
+        <v>-0.00192809728271548</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.04775654765811033</v>
+        <v>0.04775946997621916</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.04449063502039818</v>
+        <v>0.04452963119823594</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.02581416067959319</v>
+        <v>0.02582485016883229</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.01119108094408605</v>
+        <v>0.01119407706116338</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.0598605754167072</v>
+        <v>0.0598627297544907</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.02766487070034152</v>
+        <v>-0.02767046476804014</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.0001600336483493781</v>
+        <v>-0.0001600259538301341</v>
       </c>
     </row>
     <row r="6">
@@ -1588,25 +1588,25 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.00844403694235818</v>
+        <v>0.00845480291920464</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.03755764403150197</v>
+        <v>-0.03755254700179533</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.007744143469604836</v>
+        <v>0.007761914246849688</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.0546779511685872</v>
+        <v>-0.05469185889300765</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.07040382892763253</v>
+        <v>0.07042616818993053</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.03197414170526169</v>
+        <v>-0.03198728302196074</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.03579129098867173</v>
+        <v>-0.03579344904264525</v>
       </c>
       <c r="I6" s="15" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.03434809530007055</v>
+        <v>0.03434614679822912</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>-0.01794334662008856</v>
+        <v>-0.01795072985604174</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.01260779354165376</v>
+        <v>-0.01261114501690874</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.2342462503555329</v>
+        <v>0.2342564891907324</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.08513694936550986</v>
+        <v>0.08514585361098481</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.001864117134826371</v>
+        <v>0.001851058849501985</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.01272895463545531</v>
+        <v>-0.0127250307972353</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.02532823850447885</v>
+        <v>0.0253386196242964</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.01696443838697981</v>
+        <v>-0.01695638111543962</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.009820980704160265</v>
+        <v>0.009822305300060119</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.003251802382334579</v>
+        <v>-0.003265907252510747</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.007298976785700129</v>
+        <v>-0.007303521008227842</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.03850367681299116</v>
+        <v>-0.03850166391410581</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.08328008241137907</v>
+        <v>0.08328245304300919</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.04585448488312616</v>
+        <v>0.04586024362193353</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.09049466225934355</v>
+        <v>-0.09048279071193543</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.04592401942410695</v>
+        <v>-0.04593513588546161</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.01213263332894732</v>
+        <v>0.01214040720767295</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.01468517896695376</v>
+        <v>0.01470321273792496</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.09923533102596793</v>
+        <v>0.09921223828552339</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.05601002542445288</v>
+        <v>0.05602175038534862</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.01628370294090065</v>
+        <v>-0.01627693666517693</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.02262508082538317</v>
+        <v>-0.02263236165415106</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.03838128333925128</v>
+        <v>-0.03838203712538735</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.06692646835288807</v>
+        <v>0.06692665791564356</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.05703961406897573</v>
+        <v>0.05709492425738016</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.01392941464485675</v>
+        <v>-0.01396199833839074</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.03493618551141442</v>
+        <v>-0.03494243183020174</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.02666933063000809</v>
+        <v>-0.02665385429031875</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.02737479689474664</v>
+        <v>0.02742435251165465</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.03023883651526105</v>
+        <v>0.03024124863373157</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.02267570253809392</v>
+        <v>-0.02266684721195644</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.009184668274411889</v>
+        <v>0.009187887358253155</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.01997322215442998</v>
+        <v>0.01997627717663808</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.05107101952649096</v>
+        <v>-0.05107584482230165</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>0.01200230708452876</v>
+        <v>0.01201369277645692</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.01700187169603962</v>
+        <v>0.01698869097581723</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.009473723134998169</v>
+        <v>0.009430177992895583</v>
       </c>
     </row>
     <row r="10">
@@ -1752,7 +1752,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.01783733780153884</v>
+        <v>-0.01784915314450297</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0</v>
@@ -1761,16 +1761,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>-0.01472055477557865</v>
+        <v>-0.01472325635466221</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.02577571231178655</v>
+        <v>0.0257778736541594</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.0718046875906857</v>
+        <v>0.07183468351382349</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>-0.006325794074340529</v>
+        <v>-0.006323209689942155</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1889,31 +1889,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.04331869138870825</v>
+        <v>0.0433133711289686</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.01904821018048075</v>
+        <v>-0.01904712210457593</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.03568454183731373</v>
+        <v>-0.03567213297227001</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.15891272533273</v>
+        <v>0.1588575093463367</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.05998698023864713</v>
+        <v>-0.05997049831530588</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.02812993778888584</v>
+        <v>-0.02808984341924936</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.01976246302301332</v>
+        <v>0.01974282656314919</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1048131137174675</v>
+        <v>0.1047562163105453</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.2963521714147215</v>
+        <v>0.2963276757997584</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1108375396521538</v>
+        <v>-0.1108267949076013</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.02788953591484766</v>
+        <v>-0.02787133668884101</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.04334533373881833</v>
+        <v>-0.0433313006787982</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.07195596670484283</v>
+        <v>-0.07190489477901052</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.05347462733012032</v>
+        <v>-0.05349786118767808</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1831784906743321</v>
+        <v>0.1831521107189733</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0.08807385286485769</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2514181375592739</v>
+        <v>0.2514203612152135</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.06648236799820872</v>
+        <v>-0.06648249220026015</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.06828204819045802</v>
+        <v>-0.06827634866934018</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.004361993687415189</v>
+        <v>-0.004364575455192643</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.008670628033343841</v>
+        <v>-0.008669407078223501</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2005879399238613</v>
+        <v>0.2005918495381616</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.02945437678863017</v>
+        <v>0.02945643827316413</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1321565876960651</v>
+        <v>-0.1321510245593468</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.009750330162947685</v>
+        <v>-0.009760956060596793</v>
       </c>
       <c r="F4" s="15" t="n">
         <v>-0.01869687499886785</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.01723752168006476</v>
+        <v>-0.0172386619306395</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.07810503006444258</v>
+        <v>0.0780880280409666</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03256098563187182</v>
+        <v>-0.03256274734622022</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.0076842078131798</v>
+        <v>-0.007689753095146523</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.001347212024823019</v>
+        <v>0.001347296127348185</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.0257208551682615</v>
+        <v>0.02571242434887289</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.08275464363678875</v>
+        <v>0.08277684160945431</v>
       </c>
     </row>
     <row r="5">
@@ -2006,37 +2006,37 @@
         <v>0.03685602696773627</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.003950462904731333</v>
+        <v>0.003956353323751438</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.03396733935197527</v>
+        <v>0.03399153542815569</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.03107606692474763</v>
+        <v>0.03108071573182514</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.0453940587509889</v>
+        <v>0.04539079623057773</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.0149512317467293</v>
+        <v>0.01495401499328852</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.08960227615053706</v>
+        <v>0.08964292552269759</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.03752599001437007</v>
+        <v>-0.03751570815503413</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.001902555088135971</v>
+        <v>0.001905767564365668</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05668072080971998</v>
+        <v>0.05668288003386124</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.02596002722889956</v>
+        <v>0.02595438499080283</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.007843533214568765</v>
+        <v>0.007843541004771692</v>
       </c>
     </row>
     <row r="6">
@@ -2044,25 +2044,25 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.01632041321633459</v>
+        <v>0.01633137624560121</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.0539715964214974</v>
+        <v>-0.05396681089697397</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.07367383788494475</v>
+        <v>-0.073657236395683</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.00822595588923114</v>
+        <v>-0.00824038421971296</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.106214131209492</v>
+        <v>0.1062375575312273</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.04374257936285342</v>
+        <v>0.04372926437591484</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.01192694873664324</v>
+        <v>-0.01192912354007958</v>
       </c>
       <c r="I6" s="15" t="n">
         <v>0.07966801273828805</v>
@@ -2074,10 +2074,10 @@
         <v>0.09307593245600398</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.009917055092339311</v>
+        <v>-0.009918730211020077</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.04277211227113931</v>
+        <v>0.042764485959222</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.003487358906415272</v>
+        <v>0.003484013301119138</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.01261796134591475</v>
+        <v>-0.01260957043431499</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.01713054001444414</v>
+        <v>-0.01712203513879562</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.04291025026510376</v>
+        <v>0.04289689868132296</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.06813558811331144</v>
+        <v>0.06813929738681002</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.003314093194876966</v>
+        <v>0.003324390228814034</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.05526439884123946</v>
+        <v>-0.05525642303354017</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.01871196860248281</v>
+        <v>-0.0187106765981474</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.01422748577010602</v>
+        <v>-0.01424165576671366</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.03510403766809889</v>
+        <v>-0.03510844342554309</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.0353490874411142</v>
+        <v>-0.03534699586509082</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.002408870159361642</v>
+        <v>0.002411205733599209</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.0252499783336253</v>
+        <v>-0.02524436873514535</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1564554684398896</v>
+        <v>-0.1564435664024855</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.04863307288365593</v>
+        <v>0.04862080951177683</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.08856084400989672</v>
+        <v>-0.08855405041754305</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.005260164443232407</v>
+        <v>0.005278043414455702</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.060488481045192</v>
+        <v>-0.06050869891000943</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.08176265994509713</v>
+        <v>-0.0817524199777413</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.005035318857584903</v>
+        <v>0.005042567699082179</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.02997143063899466</v>
+        <v>0.0299640489352575</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.07136347743848137</v>
+        <v>-0.07136419052317999</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.07416771882790751</v>
+        <v>0.07416829275539705</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.06399419313201693</v>
+        <v>-0.06394515641509591</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.06681293163603441</v>
+        <v>-0.06684477539176015</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.03368255349837135</v>
+        <v>0.03367813358345706</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.01693722207627513</v>
+        <v>0.01695233677355712</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.08558081849863908</v>
+        <v>-0.08553575004143188</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.03932881742688477</v>
+        <v>-0.03932521623405982</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.07356214377716108</v>
+        <v>-0.07355357771365212</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.01191290009588086</v>
+        <v>0.01191702491935365</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.08631390038068476</v>
+        <v>0.08631722429278077</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.0635638250399424</v>
+        <v>-0.06356860721718849</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.02169765321332173</v>
+        <v>-0.02168640376559061</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.02621026948517835</v>
+        <v>-0.02622284897026483</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.06052720060766759</v>
+        <v>0.06048163408127372</v>
       </c>
     </row>
     <row r="10">
@@ -2208,7 +2208,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.1162743664809456</v>
+        <v>0.1162607755314931</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0.004280811429914211</v>
@@ -2217,16 +2217,16 @@
         <v>0.07009750317718355</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1142600179069098</v>
+        <v>0.1142570095725062</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.01520865905856217</v>
+        <v>-0.01520654815917499</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.08547898231107232</v>
+        <v>-0.08545300629072727</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.003870636859953258</v>
+        <v>0.003873221244351521</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/bt_report/rs_m_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/rs_m_ind/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>614824006.3432277</v>
+        <v>547314694.0943071</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>7874.208027750254</v>
+        <v>6726.295307010412</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>5.148240063432278</v>
+        <v>4.473146940943071</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.2571369831352956</v>
+        <v>0.2388475766068812</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>6.148240063432278</v>
+        <v>5.473146940943071</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>165.5922849376499</v>
+        <v>163.8016114462503</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.3467212255116107</v>
+        <v>0.1997208139271588</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2027371538352092</v>
+        <v>0.1936021240123498</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.018606461659571</v>
+        <v>0.9814279961233892</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1444562782027982</v>
+        <v>0.1364601066359063</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.429563169453263</v>
+        <v>1.392396278288387</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2206190325155632</v>
+        <v>0.1872493811011675</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.0203391910279853</v>
+        <v>0.01941516009782413</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.866512177220274</v>
+        <v>0.6313485968077448</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.0818072416138067</v>
+        <v>0.0636062813633429</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1942438477621634</v>
+        <v>0.1770998335820816</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.3831537712222267</v>
+        <v>0.3599681066471677</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.357454543613016</v>
+        <v>1.306565400183083</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.4364637355059541</v>
+        <v>0.3685791576983086</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.5819203296632957</v>
+        <v>0.6203150393183933</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2533761069166114</v>
+        <v>0.2552685083985415</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1875135181777243</v>
+        <v>0.1713086324952553</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.4091584811887613</v>
+        <v>0.3754187252464343</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.009564147274585</v>
+        <v>0.9677017916382005</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.536581693232911</v>
+        <v>1.516128694280316</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.36075968980303</v>
+        <v>1.286113056886363</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03273080785736062</v>
+        <v>0.03357869783637365</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.1764997540447136</v>
+        <v>0.1755281453795226</v>
       </c>
     </row>
   </sheetData>
@@ -1157,16 +1157,16 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.6739099999999991</v>
+        <v>0.6572160000000011</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.526009318344383</v>
+        <v>0.5091174438270818</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.401276550366179</v>
+        <v>3.420993367404979</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>5.530832301055194</v>
+        <v>5.474778053968948</v>
       </c>
       <c r="F2" s="13" t="n">
         <v>0.5789473684210527</v>
@@ -1177,19 +1177,19 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>1.16411515553405</v>
+        <v>1.086767808179501</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.004653664068104879</v>
+        <v>-0.0354450043792004</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.807273966432725</v>
+        <v>2.776067171950666</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.806544731628684</v>
+        <v>3.64082780121501</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="4">
@@ -1197,19 +1197,19 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.07498314715610657</v>
+        <v>-0.05721316571362457</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.1789967847871007</v>
+        <v>0.1953239935298312</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.3883630044574152</v>
+        <v>-0.3558135259079194</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.002965529784028581</v>
+        <v>0.03962767744182105</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1217,19 +1217,19 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.2287495467642322</v>
+        <v>0.1931621850164809</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.3518812527427847</v>
+        <v>0.3107920614141398</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.752058503973699</v>
+        <v>1.718594169129576</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>2.459432647506874</v>
+        <v>2.362356452602546</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.6274509803921569</v>
+        <v>0.6078431372549019</v>
       </c>
     </row>
     <row r="6">
@@ -1237,16 +1237,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.06163491096251222</v>
+        <v>-0.04851022415850928</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2451297487633153</v>
+        <v>0.2621315499172984</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.3655844308088864</v>
+        <v>-0.2731581184983285</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.1393976042610543</v>
+        <v>0.2372799953117701</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>0.6470588235294118</v>
@@ -1257,19 +1257,19 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.3721264836374765</v>
+        <v>0.3406182517762705</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.07191739462184729</v>
+        <v>-0.09340171134993258</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.669719536100036</v>
+        <v>1.564102784086202</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.8528511353307362</v>
+        <v>0.638397932917481</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4807692307692308</v>
       </c>
     </row>
     <row r="8">
@@ -1277,19 +1277,19 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1281805919216598</v>
+        <v>0.05333788506501335</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.341245475220039</v>
+        <v>-0.3867392454307172</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.6353338689599191</v>
+        <v>0.3476466241769234</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-1.78838083367367</v>
+        <v>-2.184541846044768</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="9">
@@ -1297,16 +1297,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.0276603261455664</v>
+        <v>-0.01942054239539772</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1697256809607827</v>
+        <v>-0.1648889548803522</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>-0.05822255321871239</v>
+        <v>-0.02165174813500616</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-0.5122700889330872</v>
+        <v>-0.4382542362577577</v>
       </c>
       <c r="F9" s="13" t="n">
         <v>0.4230769230769231</v>
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.05721351543474881</v>
+        <v>0.06785215298224753</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.2085360304390557</v>
+        <v>0.2205858606423904</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>1.166090969831543</v>
+        <v>1.431790072817247</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>1.594299015348746</v>
+        <v>1.935023174048855</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.52</v>
@@ -1433,31 +1433,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.02105799999999991</v>
+        <v>-0.01633799999999985</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.01218253992575669</v>
+        <v>0.01222371099015707</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.02886358223295127</v>
+        <v>0.03060101276908544</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.1115856505549955</v>
+        <v>0.09848999420165527</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.002422288228474123</v>
+        <v>-0.001565797656360113</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.05166827217794911</v>
+        <v>0.03583880667036343</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.001815136963775776</v>
+        <v>0.006260985030764665</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1501256455443896</v>
+        <v>0.1553913169492531</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.2219605564380487</v>
+        <v>0.2226965466460284</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.02261949567181021</v>
+        <v>0.04264139375917253</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.1168647945726449</v>
+        <v>0.07506588991609342</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.1621236110740611</v>
+        <v>0.1590170473845909</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.1397813455038099</v>
+        <v>0.1209526353069594</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.1784153894513043</v>
+        <v>0.1766039621560274</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.01796129469840335</v>
+        <v>-0.01726196261721713</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.01879926566434853</v>
+        <v>0.0150918501142594</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.002217285988360462</v>
+        <v>0.002882415114375148</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.114624704069042</v>
+        <v>0.1145354274886574</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.07526029626671327</v>
+        <v>0.07656910188052812</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.01011781390528133</v>
+        <v>0.01453673774611453</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.08841821774481617</v>
+        <v>-0.03177063377888945</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-0.01717442363295685</v>
+        <v>-0.01675210663146554</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.04483808767896269</v>
+        <v>0.0444262806464728</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.05131839890063405</v>
+        <v>-0.04964365545003846</v>
       </c>
       <c r="F4" s="15" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01580188136730243</v>
+        <v>0.02382593927153365</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.02965735648775403</v>
+        <v>5.798515340948995e-05</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.001128159314164101</v>
+        <v>0.005372281954094005</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02599620194806751</v>
+        <v>-0.02967906148098598</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.007268822696989474</v>
+        <v>0.007246898530246515</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.03782564281322509</v>
+        <v>0.008663579780336716</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02301875064142633</v>
+        <v>-0.01682219824531672</v>
       </c>
     </row>
     <row r="5">
@@ -1550,37 +1550,37 @@
         <v>0</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.02616069390209463</v>
+        <v>0.02596791958210853</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.02391635818060278</v>
+        <v>0.01752418660019606</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.001700747414298265</v>
+        <v>0.003506526664145637</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.00192809728271548</v>
+        <v>-0.001814036119110463</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.04775946997621916</v>
+        <v>0.0436547044165061</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.04452963119823594</v>
+        <v>0.03520375872484771</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.02582485016883229</v>
+        <v>0.01339870248088015</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.01119407706116338</v>
+        <v>0.00509772037145928</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.0598627297544907</v>
+        <v>0.05383656274171345</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.02767046476804014</v>
+        <v>-0.01595680375288766</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.0001600259538301341</v>
+        <v>-0.000159865486814792</v>
       </c>
     </row>
     <row r="6">
@@ -1588,25 +1588,25 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.00845480291920464</v>
+        <v>0.008453917831938718</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.03755254700179533</v>
+        <v>-0.03786327731889272</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.007761914246849688</v>
+        <v>0.007690561152916775</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.05469185889300765</v>
+        <v>-0.04379858157893024</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.07042616818993053</v>
+        <v>0.07023659475998478</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.03198728302196074</v>
+        <v>-0.03101853826268886</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.03579344904264525</v>
+        <v>-0.03579365613846053</v>
       </c>
       <c r="I6" s="15" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.03434614679822912</v>
+        <v>0.03585805048334434</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>-0.01795072985604174</v>
+        <v>-0.01741708627020377</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.01261114501690874</v>
+        <v>-0.0003825541269508737</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.2342564891907324</v>
+        <v>0.235501095804592</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.08514585361098481</v>
+        <v>0.08673857784738992</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.001851058849501985</v>
+        <v>-0.01263774697331599</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.0127250307972353</v>
+        <v>-0.01188311296459676</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.0253386196242964</v>
+        <v>-0.007363791216681514</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.01695638111543962</v>
+        <v>-0.01772617801253873</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.009822305300060119</v>
+        <v>0.009816435138652047</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.003265907252510747</v>
+        <v>0.006981625613627029</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.007303521008227842</v>
+        <v>-0.007207069978747649</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.03850166391410581</v>
+        <v>-0.03986774053249609</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.08328245304300919</v>
+        <v>0.08328277722340105</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.04586024362193353</v>
+        <v>0.04585956994196483</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.09048279071193543</v>
+        <v>-0.09001038387183702</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.04593513588546161</v>
+        <v>-0.0468845318672062</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.01214040720767295</v>
+        <v>-0.002217618044505931</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.01470321273792496</v>
+        <v>0.004941615285208201</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.09921223828552339</v>
+        <v>0.0915477292476381</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.05602175038534862</v>
+        <v>0.05797285894849491</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.01627693666517693</v>
+        <v>-0.01730483070247668</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.02263236165415106</v>
+        <v>-0.0207009033692972</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.03838203712538735</v>
+        <v>-0.03009420225134829</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.06692665791564356</v>
+        <v>0.05890982295604341</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.05709492425738016</v>
+        <v>0.01460208092027759</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.01396199833839074</v>
+        <v>0.008374581586596541</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.03494243183020174</v>
+        <v>-0.06092025269695767</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.02665385429031875</v>
+        <v>-0.02571212737427131</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.02742435251165465</v>
+        <v>-0.01179165905447344</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.03024124863373157</v>
+        <v>0.05356394913044804</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.02266684721195644</v>
+        <v>-0.006898440456509558</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.009187887358253155</v>
+        <v>0.02047727015191358</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.01997627717663808</v>
+        <v>0.02118169886752908</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.05107584482230165</v>
+        <v>-0.05004771030931399</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>0.01201369277645692</v>
+        <v>0.01382160122060938</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.01698869097581723</v>
+        <v>0.01889403509388976</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.009430177992895583</v>
+        <v>0.005239016393892681</v>
       </c>
     </row>
     <row r="10">
@@ -1752,7 +1752,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.01784915314450297</v>
+        <v>-0.01018168607628867</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0</v>
@@ -1761,16 +1761,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>-0.01472325635466221</v>
+        <v>-0.01463220211961158</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.0257778736541594</v>
+        <v>0.02577755141967497</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.07183468351382349</v>
+        <v>0.07436859657597372</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>-0.006323209689942155</v>
+        <v>-0.006539095167114151</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1889,31 +1889,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.0433133711289686</v>
+        <v>0.04829158663534994</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.01904712210457593</v>
+        <v>-0.01900708508411431</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.03567213297227001</v>
+        <v>-0.03441457341160159</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.1588575093463367</v>
+        <v>0.1449462683522449</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.05997049831530588</v>
+        <v>-0.05921249053832811</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.02808984341924936</v>
+        <v>-0.04294135670745203</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.01974282656314919</v>
+        <v>0.02407361903497929</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1047562163105453</v>
+        <v>0.1097192819872326</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.2963276757997584</v>
+        <v>0.2972535160332168</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1108267949076013</v>
+        <v>-0.0935815848179361</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.02787133668884101</v>
+        <v>-0.06593647556749782</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.0433313006787982</v>
+        <v>-0.04612017608918728</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.07190489477901052</v>
+        <v>-0.08830437373569411</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.05349786118767808</v>
+        <v>-0.05520820144181426</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1831521107189733</v>
+        <v>0.1838439644125633</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0.08807385286485769</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2514203612152135</v>
+        <v>0.2463899561796856</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.06648249220026015</v>
+        <v>-0.06586781893686489</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.06827634866934018</v>
+        <v>-0.068372232782276</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.004364575455192643</v>
+        <v>-0.003196264975075302</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.008669407078223501</v>
+        <v>-0.004422624312366952</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2005918495381616</v>
+        <v>0.2690839720942571</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.02945643827316413</v>
+        <v>0.029892148823492</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1321510245593468</v>
+        <v>-0.1325288466426386</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.009760956060596793</v>
+        <v>-0.008239162251679533</v>
       </c>
       <c r="F4" s="15" t="n">
         <v>-0.01869687499886785</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.0172386619306395</v>
+        <v>-0.009911722777366183</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.0780880280409666</v>
+        <v>0.04753119417239371</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03256274734622022</v>
+        <v>-0.02847763025110162</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.007689753095146523</v>
+        <v>-0.01162778256224672</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.001347296127348185</v>
+        <v>0.001325576446434606</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.02571242434887289</v>
+        <v>-0.003039913954920648</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.08277684160945431</v>
+        <v>0.08960993391755268</v>
       </c>
     </row>
     <row r="5">
@@ -2006,37 +2006,37 @@
         <v>0.03685602696773627</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.003956353323751438</v>
+        <v>0.003764092730750734</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.03399153542815569</v>
+        <v>0.02740487916176138</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.03108071573182514</v>
+        <v>0.03282987329413922</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.04539079623057773</v>
+        <v>0.04551027419827114</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.01495401499328852</v>
+        <v>0.01089948332262414</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.08964292552269759</v>
+        <v>0.07991522621517233</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.03751570815503413</v>
+        <v>-0.04966392931549735</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.001905767564365668</v>
+        <v>-0.004223579662163357</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05668288003386124</v>
+        <v>0.05048080350110262</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.02595438499080283</v>
+        <v>0.03792738919872329</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.007843541004771692</v>
+        <v>0.007843703467239393</v>
       </c>
     </row>
     <row r="6">
@@ -2044,25 +2044,25 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.01633137624560121</v>
+        <v>0.01633059156258643</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.05396681089697397</v>
+        <v>-0.05426572681397823</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.073657236395683</v>
+        <v>-0.07372489300225038</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.00824038421971296</v>
+        <v>0.002998549823872931</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.1062375575312273</v>
+        <v>0.1060364968908105</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.04372926437591484</v>
+        <v>0.04472515982599923</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.01192912354007958</v>
+        <v>-0.01192933332348411</v>
       </c>
       <c r="I6" s="15" t="n">
         <v>0.07966801273828805</v>
@@ -2074,10 +2074,10 @@
         <v>0.09307593245600398</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.009918730211020077</v>
+        <v>-0.00855312423317911</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.042764485959222</v>
+        <v>0.04332087413404317</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.003484013301119138</v>
+        <v>0.0157716652315234</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.01260957043431499</v>
+        <v>-0.01161221459431383</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.01712203513879562</v>
+        <v>-0.0156279583571155</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.04289689868132296</v>
+        <v>0.02778554403794042</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.06813929738681002</v>
+        <v>0.06897915063049087</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.003324390228814034</v>
+        <v>-0.02927460409792981</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.05525642303354017</v>
+        <v>-0.05600124431011022</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.0187106765981474</v>
+        <v>-0.01871691248114937</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.01424165576671366</v>
+        <v>-0.003490015271851665</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.03510844342554309</v>
+        <v>-0.0350148827144301</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.03534699586509082</v>
+        <v>-0.03672567417591832</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.002411205733599209</v>
+        <v>0.00241149585895406</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.02524436873514535</v>
+        <v>-0.02524502012752938</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1564435664024855</v>
+        <v>-0.1560578037696484</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.04862080951177683</v>
+        <v>0.04759841472144677</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.08855405041754305</v>
+        <v>-0.1017320076471595</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.005278043414455702</v>
+        <v>-0.004618426273679144</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.06050869891000943</v>
+        <v>-0.06762592485792829</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.0817524199777413</v>
+        <v>-0.08011185388428743</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.005042567699082179</v>
+        <v>0.003968090797116908</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.0299640489352575</v>
+        <v>0.03195162091631842</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.07136419052317999</v>
+        <v>-0.06359639650998894</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.07416829275539705</v>
+        <v>0.06523191824399643</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.06394515641509591</v>
+        <v>-0.1020855764773061</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.06684477539176015</v>
+        <v>-0.0459723058605449</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.03367813358345706</v>
+        <v>0.005679947747147418</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.01695233677355712</v>
+        <v>0.01787962473909976</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.08553575004143188</v>
+        <v>-0.1210598855110941</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.03932521623405982</v>
+        <v>-0.01908715504471603</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.07355357771365212</v>
+        <v>-0.05828017869800894</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.01191702491935365</v>
+        <v>0.02270653807500711</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.08631722429278077</v>
+        <v>0.08757497266491532</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.06356860721718849</v>
+        <v>-0.06256697476739392</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.02168640376559061</v>
+        <v>-0.0199270336795444</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.02622284897026483</v>
+        <v>-0.0244166954884768</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.06048163408127372</v>
+        <v>0.05643397210428236</v>
       </c>
     </row>
     <row r="10">
@@ -2208,7 +2208,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.1162607755314931</v>
+        <v>0.1248917733476693</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0.004280811429914211</v>
@@ -2217,16 +2217,16 @@
         <v>0.07009750317718355</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1142570095725062</v>
+        <v>0.1143584483573861</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.01520654815917499</v>
+        <v>-0.01520686152721951</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.08545300629072727</v>
+        <v>-0.08330747210067924</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.003873221244351521</v>
+        <v>0.003657335767179415</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/bt_report/rs_m_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/rs_m_ind/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>547314694.0943071</v>
+        <v>540726109.9651904</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>6726.295307010412</v>
+        <v>15470.63849043846</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>4.473146940943071</v>
+        <v>4.407261099651904</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.2388475766068812</v>
+        <v>0.2369585446078597</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>5.473146940943071</v>
+        <v>5.407261099651904</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>163.8016114462503</v>
+        <v>163.7556728720079</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.1997208139271588</v>
+        <v>0.1995229419854657</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.1936021240123498</v>
+        <v>0.1937806800141509</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0.9814279961233892</v>
+        <v>0.9728232354453052</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1364601066359063</v>
+        <v>0.1366649336207842</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.392396278288387</v>
+        <v>1.379390770577948</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.1872493811011675</v>
+        <v>0.2048297493997633</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.01941516009782413</v>
+        <v>0.01944061853184287</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.6313485968077448</v>
+        <v>0.6119641311805925</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.0636062813633429</v>
+        <v>0.06200552736488385</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1770998335820816</v>
+        <v>0.1752004016697491</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.3599681066471677</v>
+        <v>0.3601786274368262</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.306565400183083</v>
+        <v>1.292995645826058</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.3685791576983086</v>
+        <v>0.3626568898978493</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.6203150393183933</v>
+        <v>0.6284547942947027</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2552685083985415</v>
+        <v>0.2553224766307479</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1713086324952553</v>
+        <v>0.16948883225992</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.3754187252464343</v>
+        <v>0.375018130668971</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.9677017916382005</v>
+        <v>0.9591884462212066</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.516128694280316</v>
+        <v>1.500948261172057</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.286113056886363</v>
+        <v>1.272028636734846</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03357869783637365</v>
+        <v>0.03361752996570887</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.1755281453795226</v>
+        <v>0.1933629774587414</v>
       </c>
     </row>
   </sheetData>
@@ -1177,16 +1177,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>1.086767808179501</v>
+        <v>1.086796168996679</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>-0.0354450043792004</v>
+        <v>-0.0354314445554109</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.776067171950666</v>
+        <v>2.77610620602268</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.64082780121501</v>
+        <v>3.64094179198424</v>
       </c>
       <c r="F3" s="13" t="n">
         <v>0.4615384615384616</v>
@@ -1197,16 +1197,16 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.05721316571362457</v>
+        <v>-0.05721152066696832</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.1953239935298312</v>
+        <v>0.1953260192564959</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.3558135259079194</v>
+        <v>-0.355800522470184</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.03962767744182105</v>
+        <v>0.03964056046889691</v>
       </c>
       <c r="F4" s="13" t="n">
         <v>0.5600000000000001</v>
@@ -1217,16 +1217,16 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.1931621850164809</v>
+        <v>0.1931610630412853</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.3107920614141398</v>
+        <v>0.3107907593415675</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.718594169129576</v>
+        <v>1.718587674263753</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>2.362356452602546</v>
+        <v>2.362342689110136</v>
       </c>
       <c r="F5" s="13" t="n">
         <v>0.6078431372549019</v>
@@ -1237,16 +1237,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.04851022415850928</v>
+        <v>-0.04850926879174771</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2621315499172984</v>
+        <v>0.2621330548795779</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.2731581184983285</v>
+        <v>-0.273147407822728</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.2372799953117701</v>
+        <v>0.237291581036758</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>0.6470588235294118</v>
@@ -1257,19 +1257,19 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.3406182517762705</v>
+        <v>0.3601035149590966</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.09340171134993258</v>
+        <v>-0.08029116437420376</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.564102784086202</v>
+        <v>1.638665860867711</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.638397932917481</v>
+        <v>0.7866258356008456</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.4807692307692308</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -1277,16 +1277,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.05333788506501335</v>
+        <v>0.05333529317706189</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.3867392454307172</v>
+        <v>-0.3867406138792234</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.3476466241769234</v>
+        <v>0.3476355112632278</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-2.184541846044768</v>
+        <v>-2.184568783379637</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>0.3076923076923077</v>
@@ -1297,16 +1297,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.01942054239539772</v>
+        <v>-0.04070186144368955</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1648889548803522</v>
+        <v>-0.1828463222081072</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>-0.02165174813500616</v>
+        <v>-0.1442776927140291</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-0.4382542362577577</v>
+        <v>-0.5823967857703578</v>
       </c>
       <c r="F9" s="13" t="n">
         <v>0.4230769230769231</v>
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.06785215298224753</v>
+        <v>0.06293836473833402</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.2205858606423904</v>
+        <v>0.2149992147658916</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>1.431790072817247</v>
+        <v>1.32204321681616</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>1.935023174048855</v>
+        <v>1.797689940640313</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.52</v>
@@ -1474,31 +1474,31 @@
         <v>0.1590170473845909</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.1209526353069594</v>
+        <v>0.1209558866220002</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.1766039621560274</v>
+        <v>0.1766129800819596</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.01726196261721713</v>
+        <v>-0.01726142808947373</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.0150918501142594</v>
+        <v>0.01509132411909908</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.002882415114375148</v>
+        <v>0.002882384588120956</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.1145354274886574</v>
+        <v>0.1145363300009254</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.07656910188052812</v>
+        <v>0.07657107376051497</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.01453673774611453</v>
+        <v>0.01453713257091582</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.03177063377888945</v>
+        <v>-0.03177020199683533</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-0.01675210663146554</v>
+        <v>-0.01675067689005105</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.0444262806464728</v>
+        <v>0.04442528871790463</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.04964365545003846</v>
+        <v>-0.0496429335864611</v>
       </c>
       <c r="F4" s="15" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.02382593927153365</v>
+        <v>0.0238258807328926</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>5.798515340948995e-05</v>
+        <v>5.828315751199575e-05</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.005372281954094005</v>
+        <v>0.005372198462012312</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02967906148098598</v>
+        <v>-0.02967919724249035</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.007246898530246515</v>
+        <v>0.007247093886247002</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.008663579780336716</v>
+        <v>0.008663749550601452</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.01682219824531672</v>
+        <v>-0.01682253756250363</v>
       </c>
     </row>
     <row r="5">
@@ -1550,37 +1550,37 @@
         <v>0</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.02596791958210853</v>
+        <v>0.02596813477040838</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.01752418660019606</v>
+        <v>0.01752391418337251</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.003506526664145637</v>
+        <v>0.003505885498302774</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.001814036119110463</v>
+        <v>-0.001814009564245378</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.0436547044165061</v>
+        <v>0.04365582403220225</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.03520375872484771</v>
+        <v>0.03520151848475273</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.01339870248088015</v>
+        <v>0.01339797765248218</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.00509772037145928</v>
+        <v>0.005097654821609066</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05383656274171345</v>
+        <v>0.05383773969714767</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.01595680375288766</v>
+        <v>-0.01595632887589682</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.000159865486814792</v>
+        <v>-0.0001598631858984456</v>
       </c>
     </row>
     <row r="6">
@@ -1588,25 +1588,25 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.008453917831938718</v>
+        <v>0.008453539080845562</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.03786327731889272</v>
+        <v>-0.03786351119563636</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.007690561152916775</v>
+        <v>0.00769151493330722</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.04379858157893024</v>
+        <v>-0.04379846255410313</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.07023659475998478</v>
+        <v>0.07023775154729539</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.03101853826268886</v>
+        <v>-0.03101881491422898</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.03579365613846053</v>
+        <v>-0.03579362648987661</v>
       </c>
       <c r="I6" s="15" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.03585805048334434</v>
+        <v>0.03585831338394008</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>-0.01741708627020377</v>
+        <v>-0.01741760522926361</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.0003825541269508737</v>
+        <v>-0.0003828183971119614</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.235501095804592</v>
+        <v>0.2355023963014826</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.08673857784738992</v>
+        <v>0.08673892376473646</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.01263774697331599</v>
+        <v>0.001715185074327552</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.01188311296459676</v>
+        <v>-0.01188405983484775</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.007363791216681514</v>
+        <v>-0.007364525292753776</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.01772617801253873</v>
+        <v>-0.01772781498104026</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.009816435138652047</v>
+        <v>0.009815811960553589</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.006981625613627029</v>
+        <v>0.006982502332870677</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.007207069978747649</v>
+        <v>-0.007206878664894667</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.03986774053249609</v>
+        <v>-0.03986782757589136</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.08328277722340105</v>
+        <v>0.08328258778621023</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.04585956994196483</v>
+        <v>0.04585935009330777</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.09001038387183702</v>
+        <v>-0.09000985700692654</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.0468845318672062</v>
+        <v>-0.04688499846181549</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.002217618044505931</v>
+        <v>-0.002217784803488554</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.004941615285208201</v>
+        <v>0.004939657739744474</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.0915477292476381</v>
+        <v>0.09154814080237128</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.05797285894849491</v>
+        <v>0.05797483027753159</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.01730483070247668</v>
+        <v>-0.01730381312093576</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.0207009033692972</v>
+        <v>-0.02070073407909312</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.03009420225134829</v>
+        <v>-0.03009526811326213</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.05890982295604341</v>
+        <v>0.0589098009644129</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.01460208092027759</v>
+        <v>0.01459948980421566</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.008374581586596541</v>
+        <v>-0.01343616459362895</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.06092025269695767</v>
+        <v>-0.06092024811934094</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.02571212737427131</v>
+        <v>-0.02571280333794623</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.01179165905447344</v>
+        <v>-0.01179158218665111</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.05356394913044804</v>
+        <v>0.05355975961234583</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.006898440456509558</v>
+        <v>-0.006898508510313817</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.02047727015191358</v>
+        <v>0.02047659785636435</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.02118169886752908</v>
+        <v>0.02118145040574215</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.05004771030931399</v>
+        <v>-0.05004807579514081</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>0.01382160122060938</v>
+        <v>0.01375281950148999</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.01889403509388976</v>
+        <v>0.01889428858653486</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.005239016393892681</v>
+        <v>0.00523773747762557</v>
       </c>
     </row>
     <row r="10">
@@ -1752,7 +1752,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.01018168607628867</v>
+        <v>-0.01018342910521697</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0</v>
@@ -1761,16 +1761,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>-0.01463220211961158</v>
+        <v>-0.01463214388701806</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.02577755141967497</v>
+        <v>0.02577773693079699</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.07436859657597372</v>
+        <v>0.06936940441763939</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>-0.006539095167114151</v>
+        <v>-0.006486099744936191</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1930,31 +1930,31 @@
         <v>-0.04612017608918728</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.08830437373569411</v>
+        <v>-0.08830167137749589</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.05520820144181426</v>
+        <v>-0.0552006870664451</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1838439644125633</v>
+        <v>0.1838446681314605</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0.08807385286485769</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2463899561796856</v>
+        <v>0.2463893785084923</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.06586781893686489</v>
+        <v>-0.06586783795449003</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.068372232782276</v>
+        <v>-0.06837147691552847</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.003196264975075302</v>
+        <v>-0.003194442128684694</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.004422624312366952</v>
+        <v>-0.004422236189492446</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2690839720942571</v>
+        <v>0.2690844834536943</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.029892148823492</v>
+        <v>0.02989360954546516</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1325288466426386</v>
+        <v>-0.1325296331187594</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.008239162251679533</v>
+        <v>-0.008238444577436388</v>
       </c>
       <c r="F4" s="15" t="n">
         <v>-0.01869687499886785</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.009911722777366183</v>
+        <v>-0.00991179990047375</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.04753119417239371</v>
+        <v>0.04753155304283019</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.02847763025110162</v>
+        <v>-0.02847771777178065</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.01162778256224672</v>
+        <v>-0.01162791911108974</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.001325576446434606</v>
+        <v>0.001325764471203694</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>-0.003039913954920648</v>
+        <v>-0.003039738273907577</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.08960993391755268</v>
+        <v>0.08960955909211687</v>
       </c>
     </row>
     <row r="5">
@@ -2006,37 +2006,37 @@
         <v>0.03685602696773627</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.003764092730750734</v>
+        <v>0.003764312023525118</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.02740487916176138</v>
+        <v>0.02740460430407454</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.03282987329413922</v>
+        <v>0.03282920727044636</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.04551027419827114</v>
+        <v>0.04551030201439255</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.01089948332262414</v>
+        <v>0.01090057285821788</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.07991522621517233</v>
+        <v>0.07991286009890453</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.04966392931549735</v>
+        <v>-0.04966463076565564</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.004223579662163357</v>
+        <v>-0.004223659109973577</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05048080350110262</v>
+        <v>0.05048197002673538</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.03792738919872329</v>
+        <v>0.03792790017473546</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.007843703467239393</v>
+        <v>0.007843705796768186</v>
       </c>
     </row>
     <row r="6">
@@ -2044,25 +2044,25 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.01633059156258643</v>
+        <v>0.01633022672570528</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.05426572681397823</v>
+        <v>-0.05426594827226272</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.07372489300225038</v>
+        <v>-0.0737239765191956</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.002998549823872931</v>
+        <v>0.002998677915764913</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.1060364968908105</v>
+        <v>0.1060377289118675</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.04472515982599923</v>
+        <v>0.04472493404750044</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.01192933332348411</v>
+        <v>-0.01192930517573521</v>
       </c>
       <c r="I6" s="15" t="n">
         <v>0.07966801273828805</v>
@@ -2074,10 +2074,10 @@
         <v>0.09307593245600398</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.00855312423317911</v>
+        <v>-0.008552859511830602</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.04332087413404317</v>
+        <v>0.04332032650991513</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.0157716652315234</v>
+        <v>0.01577139965377539</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.01161221459431383</v>
+        <v>-0.01161113044840101</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.0156279583571155</v>
+        <v>-0.01562765328650939</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.02778554403794042</v>
+        <v>0.04265066770473469</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.06897915063049087</v>
+        <v>0.06897821350522637</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.02927460409792981</v>
+        <v>-0.02927532433476421</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.05600124431011022</v>
+        <v>-0.05600282564542503</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.01871691248114937</v>
+        <v>-0.01871751515818088</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.003490015271851665</v>
+        <v>-0.00348914330650707</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.0350148827144301</v>
+        <v>-0.03501469666763635</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.03672567417591832</v>
+        <v>-0.0367257742788869</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.00241149585895406</v>
+        <v>0.002411321116476017</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.02524502012752938</v>
+        <v>-0.02524524382995941</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1560578037696484</v>
+        <v>-0.1560573140443655</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.04759841472144677</v>
+        <v>0.04759786044422976</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.1017320076471595</v>
+        <v>-0.1017321493247572</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>-0.004618426273679144</v>
+        <v>-0.004620340305303894</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.06762592485792829</v>
+        <v>-0.0676255704927109</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.08011185388428743</v>
+        <v>-0.08010998210904585</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.003968090797116908</v>
+        <v>0.003969138513948867</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.03195162091631842</v>
+        <v>0.03195182465452362</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.06359639650998894</v>
+        <v>-0.06359742344247765</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.06523191824399643</v>
+        <v>0.06523190326478301</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.1020855764773061</v>
+        <v>-0.1020878370685417</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.0459723058605449</v>
+        <v>-0.06641616441886289</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.005679947747147418</v>
+        <v>0.005679947455119905</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.01787962473909976</v>
+        <v>0.01787891194350011</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.1210598855110941</v>
+        <v>-0.1210598273716207</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.01908715504471603</v>
+        <v>-0.01909118055493397</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.05828017869800894</v>
+        <v>-0.05828026434863121</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.02270653807500711</v>
+        <v>0.02270583074340249</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.08757497266491532</v>
+        <v>0.08757470310542859</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.06256697476739392</v>
+        <v>-0.062567328100264</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.0199270336795444</v>
+        <v>-0.01999410343667862</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.0244166954884768</v>
+        <v>-0.02441642300675995</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.05643397210428236</v>
+        <v>0.05643260821747176</v>
       </c>
     </row>
     <row r="10">
@@ -2208,7 +2208,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.1248917733476693</v>
+        <v>0.1248898214396266</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0.004280811429914211</v>
@@ -2217,16 +2217,16 @@
         <v>0.07009750317718355</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1143584483573861</v>
+        <v>0.1143585012352384</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.01520686152721951</v>
+        <v>-0.0152066814652666</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.08330747210067924</v>
+        <v>-0.0875499983635929</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.003657335767179415</v>
+        <v>0.003710331189357596</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
